--- a/San_Mateo_COVID19_Graphs.xlsx
+++ b/San_Mateo_COVID19_Graphs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16502\Documents\My Tableau Repository\MakeoverMonday\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16502\Desktop\Class_DS\M21 COVID Visualizations\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B707E531-2420-4056-A988-33BBAC13C9CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCE0D383-67F2-4A49-8735-D3FFA65B7D82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{073A0F81-87FE-4B65-A6A6-E2459DE51CCF}"/>
+    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="15816" xr2:uid="{073A0F81-87FE-4B65-A6A6-E2459DE51CCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -209,7 +209,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Cases: 18,584   Total Deaths: 179</a:t>
+              <a:t>Cases: 33,029   Total Deaths: 356</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -425,34 +425,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1099.5</c:v>
+                  <c:v>2234.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1855</c:v>
+                  <c:v>3705</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3748.5</c:v>
+                  <c:v>6655.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3554.5</c:v>
+                  <c:v>6806.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2901.5</c:v>
+                  <c:v>5356.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2292</c:v>
+                  <c:v>4564</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1137.25</c:v>
+                  <c:v>2231</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>420.45000000000005</c:v>
+                  <c:v>861.15000000000009</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>163.75</c:v>
+                  <c:v>385.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>99.2</c:v>
+                  <c:v>229.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -632,16 +632,16 @@
                   <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>388.75</c:v>
+                  <c:v>761</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>242.54999999999998</c:v>
+                  <c:v>500.84999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>182.25</c:v>
+                  <c:v>412.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>61.8</c:v>
+                  <c:v>136.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1165,22 +1165,22 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>59</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2548,7 +2548,7 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Acute Beds ...........85%</a:t>
+            <a:t>Acute Beds ...........96%</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2558,7 +2558,7 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Acute with Surge...67%</a:t>
+            <a:t>Acute with Surge...74%</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2568,7 +2568,7 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>ICU Beds................86%</a:t>
+            <a:t>ICU Beds................97%</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2586,7 +2586,7 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> Surge.......38%</a:t>
+            <a:t> Surge.......54%</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2596,7 +2596,7 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Ventilators ............21%</a:t>
+            <a:t>Ventilators ............42%</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2608,23 +2608,23 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>25396</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>118588</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>439523</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>62621</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48FA4A4F-5CD5-4211-8B85-3CC5AFEDE204}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5B62F30-0E5D-4CE6-81DB-5FE3898110CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2640,8 +2640,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9116056" y="1188720"/>
-          <a:ext cx="4497552" cy="1935480"/>
+          <a:off x="9067800" y="853440"/>
+          <a:ext cx="4257143" cy="1952381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2740,7 +2740,7 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>  Last Update: 12/13/2020</a:t>
+            <a:t>  Last Update: 1/28/2021</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="900">
             <a:solidFill>
@@ -3054,7 +3054,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3105,47 +3105,47 @@
       </c>
       <c r="B2" s="1">
         <f>B5-B4-B3</f>
-        <v>1099.5</v>
+        <v>2234.5</v>
       </c>
       <c r="C2" s="1">
         <f t="shared" ref="C2:K2" si="0">C5-C4-C3</f>
-        <v>1855</v>
+        <v>3705</v>
       </c>
       <c r="D2" s="1">
         <f t="shared" si="0"/>
-        <v>3748.5</v>
+        <v>6655.5</v>
       </c>
       <c r="E2" s="1">
         <f t="shared" si="0"/>
-        <v>3554.5</v>
+        <v>6806.5</v>
       </c>
       <c r="F2" s="1">
         <f t="shared" si="0"/>
-        <v>2901.5</v>
+        <v>5356.5</v>
       </c>
       <c r="G2" s="1">
         <f t="shared" si="0"/>
-        <v>2292</v>
+        <v>4564</v>
       </c>
       <c r="H2" s="1">
         <f t="shared" si="0"/>
-        <v>1137.25</v>
+        <v>2231</v>
       </c>
       <c r="I2" s="1">
         <f t="shared" si="0"/>
-        <v>420.45000000000005</v>
+        <v>861.15000000000009</v>
       </c>
       <c r="J2" s="1">
         <f t="shared" si="0"/>
-        <v>163.75</v>
+        <v>385.8</v>
       </c>
       <c r="K2" s="1">
         <f t="shared" si="0"/>
-        <v>99.2</v>
+        <v>229.5</v>
       </c>
       <c r="L2" s="2">
         <f>SUM(B2:K2)</f>
-        <v>17271.650000000001</v>
+        <v>33029.450000000004</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -3178,23 +3178,23 @@
       </c>
       <c r="H3" s="1">
         <f>H5*0.25</f>
-        <v>388.75</v>
+        <v>761</v>
       </c>
       <c r="I3" s="1">
         <f>I5*0.35</f>
-        <v>242.54999999999998</v>
+        <v>500.84999999999997</v>
       </c>
       <c r="J3" s="1">
         <f>J5*0.45</f>
-        <v>182.25</v>
+        <v>412.2</v>
       </c>
       <c r="K3" s="1">
         <f>K5*0.3</f>
-        <v>61.8</v>
+        <v>136.5</v>
       </c>
       <c r="L3" s="2">
         <f>SUM(B3:K3)</f>
-        <v>1130.3499999999999</v>
+        <v>2065.5500000000002</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -3214,26 +3214,26 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H4">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="I4">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="J4">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="K4">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="L4" s="2">
         <f>SUM(B4:K4)</f>
-        <v>179</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -3241,38 +3241,38 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>1122</v>
+        <v>2257</v>
       </c>
       <c r="C5">
-        <v>1870</v>
+        <v>3720</v>
       </c>
       <c r="D5">
-        <v>3786</v>
+        <v>6693</v>
       </c>
       <c r="E5">
-        <v>3593</v>
+        <v>6845</v>
       </c>
       <c r="F5">
-        <v>2941</v>
+        <v>5402</v>
       </c>
       <c r="G5">
-        <v>2410</v>
+        <v>4688</v>
       </c>
       <c r="H5">
-        <v>1555</v>
+        <v>3044</v>
       </c>
       <c r="I5">
-        <v>693</v>
+        <v>1431</v>
       </c>
       <c r="J5">
-        <v>405</v>
+        <v>916</v>
       </c>
       <c r="K5">
-        <v>206</v>
+        <v>455</v>
       </c>
       <c r="L5" s="2">
         <f>L2-L4</f>
-        <v>17092.650000000001</v>
+        <v>32673.450000000004</v>
       </c>
     </row>
     <row r="18" spans="15:16" x14ac:dyDescent="0.3">
@@ -3280,8 +3280,8 @@
         <v>14</v>
       </c>
       <c r="P18" s="3">
-        <f>343/404</f>
-        <v>0.84900990099009899</v>
+        <f>430/446</f>
+        <v>0.9641255605381166</v>
       </c>
     </row>
     <row r="19" spans="15:16" x14ac:dyDescent="0.3">
@@ -3289,8 +3289,8 @@
         <v>15</v>
       </c>
       <c r="P19" s="3">
-        <f>343/(404+108)</f>
-        <v>0.669921875</v>
+        <f>430/(446+134)</f>
+        <v>0.74137931034482762</v>
       </c>
     </row>
     <row r="20" spans="15:16" x14ac:dyDescent="0.3">
@@ -3298,8 +3298,8 @@
         <v>16</v>
       </c>
       <c r="P20" s="3">
-        <f>59/69</f>
-        <v>0.85507246376811596</v>
+        <f>83/86</f>
+        <v>0.96511627906976749</v>
       </c>
     </row>
     <row r="21" spans="15:16" x14ac:dyDescent="0.3">
@@ -3307,8 +3307,8 @@
         <v>17</v>
       </c>
       <c r="P21" s="3">
-        <f>59/(69+88)</f>
-        <v>0.37579617834394907</v>
+        <f>83/(86+67)</f>
+        <v>0.54248366013071891</v>
       </c>
     </row>
     <row r="22" spans="15:16" x14ac:dyDescent="0.3">
@@ -3316,8 +3316,8 @@
         <v>18</v>
       </c>
       <c r="P22" s="3">
-        <f>23/110</f>
-        <v>0.20909090909090908</v>
+        <f>47/111</f>
+        <v>0.42342342342342343</v>
       </c>
     </row>
   </sheetData>
